--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="21080"/>
   </bookViews>
   <sheets>
-    <sheet name="Time Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="june - 2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Time Sheet'!$7:$7</definedName>
-    <definedName name="WorkweekHours">'Time Sheet'!$B$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'june - 2017'!$7:$7</definedName>
+    <definedName name="WorkweekHours">'june - 2017'!$B$6</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -635,7 +635,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -745,7 +745,7 @@
     <row r="8" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <f ca="1">NOW()</f>
-        <v>42888.473896296295</v>
+        <v>42888.47586377315</v>
       </c>
       <c r="C8" s="6">
         <v>0.375</v>

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -635,7 +635,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -711,11 +711,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
@@ -745,28 +745,29 @@
     <row r="8" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <f ca="1">NOW()</f>
-        <v>42888.47586377315</v>
+        <v>42889.511957754628</v>
       </c>
       <c r="C8" s="6">
         <v>0.375</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>6</v>
+      <c r="D8" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.83333333333333337</v>
       </c>
       <c r="G8" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>9</v>
+      <c r="B9" s="4">
+        <f ca="1">NOW()</f>
+        <v>42889.511957754628</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>3</v>

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -635,7 +635,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -745,7 +745,7 @@
     <row r="8" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <f ca="1">NOW()</f>
-        <v>42889.511957754628</v>
+        <v>42889.557309953707</v>
       </c>
       <c r="C8" s="6">
         <v>0.375</v>
@@ -767,10 +767,10 @@
     <row r="9" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <f ca="1">NOW()</f>
-        <v>42889.511957754628</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>3</v>
+        <v>42889.557309953707</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.54166666666666663</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>4</v>

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -635,7 +635,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -711,11 +711,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>10</v>
+        <v>11.000000000000002</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>10</v>
+        <v>11.000000000000002</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
@@ -745,7 +745,7 @@
     <row r="8" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <f ca="1">NOW()</f>
-        <v>42889.557309953707</v>
+        <v>42889.708160069444</v>
       </c>
       <c r="C8" s="6">
         <v>0.375</v>
@@ -767,7 +767,7 @@
     <row r="9" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <f ca="1">NOW()</f>
-        <v>42889.557309953707</v>
+        <v>42889.708160069444</v>
       </c>
       <c r="C9" s="6">
         <v>0.54166666666666663</v>
@@ -778,12 +778,12 @@
       <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>6</v>
+      <c r="F9" s="6">
+        <v>0.58333333333333337</v>
       </c>
       <c r="G9" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>1.0000000000000018</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -635,7 +635,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -711,11 +711,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>11.000000000000002</v>
+        <v>12.833333333333334</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>11.000000000000002</v>
+        <v>12.833333333333334</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
@@ -744,8 +744,7 @@
     </row>
     <row r="8" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
-        <f ca="1">NOW()</f>
-        <v>42889.708160069444</v>
+        <v>42888</v>
       </c>
       <c r="C8" s="6">
         <v>0.375</v>
@@ -766,8 +765,7 @@
     </row>
     <row r="9" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
-        <f ca="1">NOW()</f>
-        <v>42889.708160069444</v>
+        <v>42889</v>
       </c>
       <c r="C9" s="6">
         <v>0.54166666666666663</v>
@@ -787,11 +785,11 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>3</v>
+      <c r="B10" s="4">
+        <v>42889</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.85069444444444453</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>4</v>
@@ -799,12 +797,12 @@
       <c r="E10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>6</v>
+      <c r="F10" s="6">
+        <v>0.92708333333333337</v>
       </c>
       <c r="G10" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>1.8333333333333321</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -851,7 +849,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B8:G1048576 H1:XFD1048576 A8:A1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H1:XFD1048576 A8:G1048576"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="21080"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="14840"/>
   </bookViews>
   <sheets>
     <sheet name="june - 2017" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Date(s)</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
   <si>
     <t>Name</t>
@@ -223,7 +220,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -262,6 +259,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFill="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -344,8 +344,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G12" totalsRowShown="0">
-  <autoFilter ref="B7:G12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G13" totalsRowShown="0">
+  <autoFilter ref="B7:G13"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date(s)" dataCellStyle="Date"/>
     <tableColumn id="2" name="Time In" dataCellStyle="Time"/>
@@ -632,10 +632,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H12"/>
+  <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -648,9 +648,11 @@
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -661,42 +663,42 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="11">
         <v>9365820723</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>1</v>
@@ -705,24 +707,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>40</v>
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>12.833333333333334</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>12.833333333333334</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="13">
+        <f ca="1">NOW()</f>
+        <v>42894.106207175922</v>
+      </c>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
@@ -742,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>42888</v>
       </c>
@@ -763,7 +770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <v>42889</v>
       </c>
@@ -784,7 +791,7 @@
         <v>1.0000000000000018</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>42889</v>
       </c>
@@ -805,12 +812,12 @@
         <v>1.8333333333333321</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>3</v>
+    <row r="11" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
+        <v>42892</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.83333333333333337</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>4</v>
@@ -818,20 +825,20 @@
       <c r="E11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>6</v>
+      <c r="F11" s="6">
+        <v>0.91666666666666663</v>
       </c>
       <c r="G11" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>1.9999999999999982</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
+        <v>42893</v>
+      </c>
+      <c r="C12" s="6">
         <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>4</v>
@@ -839,12 +846,33 @@
       <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>6</v>
+      <c r="F12" s="6">
+        <v>6.25E-2</v>
       </c>
       <c r="G12" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>42894</v>
+      </c>
+      <c r="C13" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G13" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="14840"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="21080"/>
   </bookViews>
   <sheets>
     <sheet name="june - 2017" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>peymanvalikhanli2012@gmail.com</t>
+  </si>
+  <si>
+    <t>lunch =&gt; waite download files from server</t>
   </si>
 </sst>
 </file>
@@ -344,8 +347,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G13" totalsRowShown="0">
-  <autoFilter ref="B7:G13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G14" totalsRowShown="0">
+  <autoFilter ref="B7:G14"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date(s)" dataCellStyle="Date"/>
     <tableColumn id="2" name="Time In" dataCellStyle="Time"/>
@@ -632,10 +635,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L13"/>
+  <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -713,11 +716,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>17.333333333333332</v>
+        <v>33.499999999999986</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>17.333333333333332</v>
+        <v>33.499999999999986</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
@@ -725,7 +728,7 @@
       </c>
       <c r="J6" s="13">
         <f ca="1">NOW()</f>
-        <v>42894.106207175922</v>
+        <v>42894.520153703706</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -873,6 +876,30 @@
       <c r="G13" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4">
+        <v>42894</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="G14" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>16.166666666666657</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="21080"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="14840"/>
   </bookViews>
   <sheets>
     <sheet name="june - 2017" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -347,8 +347,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G14" totalsRowShown="0">
-  <autoFilter ref="B7:G14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G16" totalsRowShown="0">
+  <autoFilter ref="B7:G16"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date(s)" dataCellStyle="Date"/>
     <tableColumn id="2" name="Time In" dataCellStyle="Time"/>
@@ -635,10 +635,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L14"/>
+  <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -716,11 +716,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>33.499999999999986</v>
+        <v>26.25</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>33.499999999999986</v>
+        <v>26.25</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
@@ -728,7 +728,7 @@
       </c>
       <c r="J6" s="13">
         <f ca="1">NOW()</f>
-        <v>42894.520153703706</v>
+        <v>42895.054697453706</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -888,18 +888,60 @@
       <c r="D14" s="6">
         <v>0.51874999999999993</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>5</v>
+      <c r="E14" s="6">
+        <v>0.54166666666666663</v>
       </c>
       <c r="F14" s="6">
-        <v>0.14583333333333301</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="G14" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>16.166666666666657</v>
+        <v>5.1166666666666654</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4">
+        <v>42894</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G15" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4">
+        <v>42895</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1.0208333333333333</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>0.80000000000000249</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -347,8 +347,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G16" totalsRowShown="0">
-  <autoFilter ref="B7:G16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G17" totalsRowShown="0">
+  <autoFilter ref="B7:G17"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date(s)" dataCellStyle="Date"/>
     <tableColumn id="2" name="Time In" dataCellStyle="Time"/>
@@ -635,10 +635,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L16"/>
+  <dimension ref="B1:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -716,19 +716,19 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>26.25</v>
+        <v>42.55</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>26.25</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
-        <v>0</v>
+        <v>2.5499999999999972</v>
       </c>
       <c r="J6" s="13">
         <f ca="1">NOW()</f>
-        <v>42895.054697453706</v>
+        <v>42895.453253587963</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -942,6 +942,27 @@
       <c r="G16" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>0.80000000000000249</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4">
+        <v>42895</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6">
+        <v>9.5833333333333298E-2</v>
+      </c>
+      <c r="G17" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>16.299999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -638,7 +638,7 @@
   <dimension ref="B1:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -716,19 +716,19 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>42.55</v>
+        <v>38.016666666666666</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>40</v>
+        <v>38.016666666666666</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
-        <v>2.5499999999999972</v>
+        <v>0</v>
       </c>
       <c r="J6" s="13">
         <f ca="1">NOW()</f>
-        <v>42895.453253587963</v>
+        <v>42895.963741666666</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -951,18 +951,18 @@
       <c r="C17" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>5</v>
+      <c r="D17" s="6">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.70833333333333337</v>
       </c>
       <c r="F17" s="6">
-        <v>9.5833333333333298E-2</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="G17" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>16.299999999999997</v>
+        <v>11.766666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="14840"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="21080"/>
   </bookViews>
   <sheets>
     <sheet name="june - 2017" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -347,8 +347,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G17" totalsRowShown="0">
-  <autoFilter ref="B7:G17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G18" totalsRowShown="0">
+  <autoFilter ref="B7:G18"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date(s)" dataCellStyle="Date"/>
     <tableColumn id="2" name="Time In" dataCellStyle="Time"/>
@@ -635,10 +635,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L17"/>
+  <dimension ref="B1:L18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -651,7 +651,7 @@
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -716,19 +716,19 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>38.016666666666666</v>
+        <v>45.616666666666667</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>38.016666666666666</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
-        <v>0</v>
+        <v>5.6166666666666671</v>
       </c>
       <c r="J6" s="13">
         <f ca="1">NOW()</f>
-        <v>42895.963741666666</v>
+        <v>42896.95773587963</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -963,6 +963,27 @@
       <c r="G17" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>11.766666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4">
+        <v>42896</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="G18" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -347,8 +347,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G18" totalsRowShown="0">
-  <autoFilter ref="B7:G18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G19" totalsRowShown="0">
+  <autoFilter ref="B7:G19"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date(s)" dataCellStyle="Date"/>
     <tableColumn id="2" name="Time In" dataCellStyle="Time"/>
@@ -635,10 +635,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L18"/>
+  <dimension ref="B1:L19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -716,7 +716,7 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>45.616666666666667</v>
+        <v>55.116666666666667</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -724,11 +724,11 @@
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
-        <v>5.6166666666666671</v>
+        <v>15.116666666666667</v>
       </c>
       <c r="J6" s="13">
         <f ca="1">NOW()</f>
-        <v>42896.95773587963</v>
+        <v>42898.489362268519</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -984,6 +984,27 @@
       <c r="G18" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>7.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4">
+        <v>42897</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="G19" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>9.4999999999999982</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="21080"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="14840"/>
   </bookViews>
   <sheets>
     <sheet name="june - 2017" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -347,8 +347,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G19" totalsRowShown="0">
-  <autoFilter ref="B7:G19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G20" totalsRowShown="0">
+  <autoFilter ref="B7:G20"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date(s)" dataCellStyle="Date"/>
     <tableColumn id="2" name="Time In" dataCellStyle="Time"/>
@@ -635,10 +635,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L19"/>
+  <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -716,7 +716,7 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>55.116666666666667</v>
+        <v>62.616666666666667</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -724,11 +724,11 @@
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
-        <v>15.116666666666667</v>
+        <v>22.616666666666667</v>
       </c>
       <c r="J6" s="13">
         <f ca="1">NOW()</f>
-        <v>42898.489362268519</v>
+        <v>42899.398136805554</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -1005,6 +1005,27 @@
       <c r="G19" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>9.4999999999999982</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="4">
+        <v>42898</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="G20" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -347,8 +347,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G20" totalsRowShown="0">
-  <autoFilter ref="B7:G20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G22" totalsRowShown="0">
+  <autoFilter ref="B7:G22"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date(s)" dataCellStyle="Date"/>
     <tableColumn id="2" name="Time In" dataCellStyle="Time"/>
@@ -635,10 +635,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -716,7 +716,7 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>62.616666666666667</v>
+        <v>72.766666666666666</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -724,11 +724,11 @@
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
-        <v>22.616666666666667</v>
+        <v>32.766666666666666</v>
       </c>
       <c r="J6" s="13">
         <f ca="1">NOW()</f>
-        <v>42899.398136805554</v>
+        <v>42900.216085879627</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -1026,6 +1026,48 @@
       <c r="G20" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>7.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4">
+        <v>42899</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G21" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>4.9833333333333343</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="4">
+        <v>42900</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="G22" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>5.166666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -347,8 +347,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G22" totalsRowShown="0">
-  <autoFilter ref="B7:G22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G25" totalsRowShown="0">
+  <autoFilter ref="B7:G25"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date(s)" dataCellStyle="Date"/>
     <tableColumn id="2" name="Time In" dataCellStyle="Time"/>
@@ -635,10 +635,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L22"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -716,7 +716,7 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>72.766666666666666</v>
+        <v>89.266666666666666</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -724,11 +724,11 @@
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
-        <v>32.766666666666666</v>
+        <v>49.266666666666666</v>
       </c>
       <c r="J6" s="13">
         <f ca="1">NOW()</f>
-        <v>42900.216085879627</v>
+        <v>42902.811343055553</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -1068,6 +1068,69 @@
       <c r="G22" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4">
+        <v>42900</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G23" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4">
+        <v>42901</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G24" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4">
+        <v>42902</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G25" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>3.9999999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -223,7 +223,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -264,6 +264,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -347,8 +350,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G25" totalsRowShown="0">
-  <autoFilter ref="B7:G25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G27" totalsRowShown="0">
+  <autoFilter ref="B7:G27"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date(s)" dataCellStyle="Date"/>
     <tableColumn id="2" name="Time In" dataCellStyle="Time"/>
@@ -635,10 +638,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L25"/>
+  <dimension ref="B1:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -716,7 +719,7 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>89.266666666666666</v>
+        <v>100.21666666666665</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -724,11 +727,11 @@
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
-        <v>49.266666666666666</v>
+        <v>60.216666666666654</v>
       </c>
       <c r="J6" s="13">
         <f ca="1">NOW()</f>
-        <v>42902.811343055553</v>
+        <v>42905.45656053241</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -944,7 +947,7 @@
         <v>0.80000000000000249</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4">
         <v>42895</v>
       </c>
@@ -965,7 +968,7 @@
         <v>11.766666666666666</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4">
         <v>42896</v>
       </c>
@@ -986,7 +989,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
         <v>42897</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>9.4999999999999982</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4">
         <v>42898</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
         <v>42899</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>4.9833333333333343</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
         <v>42900</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4">
         <v>42900</v>
       </c>
@@ -1091,7 +1094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4">
         <v>42901</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4">
         <v>42902</v>
       </c>
@@ -1131,6 +1134,51 @@
       <c r="G25" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>3.9999999999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="4">
+        <v>42904</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.9506944444444444</v>
+      </c>
+      <c r="G26" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>0.8999999999999968</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0.9506944444444444</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4">
+        <v>42905</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="G27" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>10.050000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -350,8 +350,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G27" totalsRowShown="0">
-  <autoFilter ref="B7:G27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G28" totalsRowShown="0">
+  <autoFilter ref="B7:G28"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date(s)" dataCellStyle="Date"/>
     <tableColumn id="2" name="Time In" dataCellStyle="Time"/>
@@ -638,10 +638,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L27"/>
+  <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -719,7 +719,7 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>100.21666666666665</v>
+        <v>112.76666666666665</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -727,11 +727,11 @@
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
-        <v>60.216666666666654</v>
+        <v>72.766666666666652</v>
       </c>
       <c r="J6" s="13">
         <f ca="1">NOW()</f>
-        <v>42905.45656053241</v>
+        <v>42907.020612962966</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -1156,9 +1156,7 @@
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>0.8999999999999968</v>
       </c>
-      <c r="J26" s="14">
-        <v>0.9506944444444444</v>
-      </c>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
@@ -1179,6 +1177,27 @@
       <c r="G27" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="4">
+        <v>42906</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.49791666666666701</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G28" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>12.54999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/timing/Time Sheet1.xlsx
+++ b/documentation/timing/Time Sheet1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -350,8 +350,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G28" totalsRowShown="0">
-  <autoFilter ref="B7:G28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G29" totalsRowShown="0">
+  <autoFilter ref="B7:G29"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date(s)" dataCellStyle="Date"/>
     <tableColumn id="2" name="Time In" dataCellStyle="Time"/>
@@ -638,10 +638,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L28"/>
+  <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -719,7 +719,7 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>112.76666666666665</v>
+        <v>117.71666666666665</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -727,11 +727,11 @@
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
-        <v>72.766666666666652</v>
+        <v>77.716666666666654</v>
       </c>
       <c r="J6" s="13">
         <f ca="1">NOW()</f>
-        <v>42907.020612962966</v>
+        <v>42909.144333449076</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -1198,6 +1198,27 @@
       <c r="G28" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>12.54999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="4">
+        <v>42909</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="G29" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>4.9500000000000011</v>
       </c>
     </row>
   </sheetData>
